--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>img1</t>
   </si>
@@ -96,6 +96,27 @@
   </si>
   <si>
     <t>537 105</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>time (img1)</t>
+  </si>
+  <si>
+    <t>0.099s</t>
+  </si>
+  <si>
+    <t>1m24s</t>
+  </si>
+  <si>
+    <t>0.017s</t>
+  </si>
+  <si>
+    <t>1m35s</t>
+  </si>
+  <si>
+    <t>0.223s</t>
   </si>
 </sst>
 </file>
@@ -110,6 +131,7 @@
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,6 +152,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,10 +223,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -309,6 +332,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
